--- a/batch/new_videos.xlsx
+++ b/batch/new_videos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,41 +503,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OKQMER75Vms</t>
+          <t>Xj8JGZVgYFQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China wants to mass-produce space rockets like cars</t>
+          <t>Marco Rubio ENDS CAREER by HUMILIATING Trump on LIVE TV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">China is moving to a lean manufacturing model to mass produce space vehicles. </t>
+          <t>Marco Rubio once again accidentally humiliated Donald Trump on live TV.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12-16T14:06:28Z</t>
+          <t>2026-01-04T23:07:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>354</v>
+        <v>693</v>
       </c>
       <c r="F2" t="n">
-        <v>71388</v>
+        <v>245636</v>
       </c>
       <c r="G2" t="n">
-        <v>615</v>
+        <v>1773</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Pondering Politics</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OKQMER75Vms</t>
+          <t>https://www.youtube.com/watch?v=Xj8JGZVgYFQ</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,32 +558,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATbs9E1KIuo</t>
+          <t>1BU_O3mQkKI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trump issues CREEPY Christmas message to young girl</t>
+          <t>Trump gets BRUTALLY EXPOSED amid Venezuela invasion | Another Day</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BREAKING #news - Trump fumbles in Christmas calls to children</t>
+          <t xml:space="preserve">Trump gets unwelcome SURPRISE amid Venezuela invasion | Another Day </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-12-25T04:08:32Z</t>
+          <t>2026-01-06T05:00:02Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="F3" t="n">
-        <v>304130</v>
+        <v>45972</v>
       </c>
       <c r="G3" t="n">
-        <v>3215</v>
+        <v>454</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ATbs9E1KIuo</t>
+          <t>https://www.youtube.com/watch?v=1BU_O3mQkKI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -613,32 +613,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>64_o8CY4lsc</t>
+          <t>DOmh6EPMeCY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bill O'Reilly on Christmas in Levittown, New York</t>
+          <t>"What Would You Do?" — Bill O'Reilly Dissects Kamala Harris' Reaction to Venezuela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bill O'Reilly reminisces on Christmas in Levittown, New York.</t>
+          <t>Subscribe to never miss an episode of No Spin News with Bill O'Reilly: https://www.youtube.com/channel/UC4OvD2yIbofl9l4dIlqSNMw</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-12-20T21:38:34Z</t>
+          <t>2026-01-05T22:40:19Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>392</v>
+        <v>135</v>
       </c>
       <c r="F4" t="n">
-        <v>77007</v>
+        <v>31521</v>
       </c>
       <c r="G4" t="n">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=64_o8CY4lsc</t>
+          <t>https://www.youtube.com/watch?v=DOmh6EPMeCY</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -668,41 +668,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5zTU_ZbJ3JE</t>
+          <t>5OJrS2xAoBQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The best way to make money in China:  stay away</t>
+          <t>Bill O'Reilly &amp; Tim Graham on Internet Bias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The world's richest brands are struggling in China, as domestic firms are more innovative, faster to market with new products, and aggressively cut prices to grow market share.</t>
+          <t>Newsbusters.org and Media Research Center's Tim Graham joins Bill to discuss liberal bias on the internet.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-12-21T02:26:08Z</t>
+          <t>2026-01-04T13:00:18Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>484</v>
+        <v>600</v>
       </c>
       <c r="F5" t="n">
-        <v>119191</v>
+        <v>18106</v>
       </c>
       <c r="G5" t="n">
-        <v>1131</v>
+        <v>74</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Bill O'Reilly</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5zTU_ZbJ3JE</t>
+          <t>https://www.youtube.com/watch?v=5OJrS2xAoBQ</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -723,32 +723,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KGZ7_fJWcCE</t>
+          <t>UUrO5jWKlGU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trump officials revive the dumbest anti-wind talking point #shorts</t>
+          <t>Trump is about to get REJECTED</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Become a Member: https://www.davidpakman.com/membership</t>
+          <t>-- Donald Trump bets the Maduro seizure will unlock Venezuela’s oil, but allies, businesses, and markets resist a plan with no clear political transition</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-12-27T14:00:35Z</t>
+          <t>2026-01-06T00:45:04Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>180</v>
+        <v>343</v>
       </c>
       <c r="F6" t="n">
-        <v>30829</v>
+        <v>155550</v>
       </c>
       <c r="G6" t="n">
-        <v>128</v>
+        <v>1166</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KGZ7_fJWcCE</t>
+          <t>https://www.youtube.com/watch?v=UUrO5jWKlGU</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -778,41 +778,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C-sitwuRdlM</t>
+          <t>qo8QnxqF92Y</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>More Day Drinking with Sabrina Carpenter</t>
+          <t>AI is revolutionizing Chinese coal production, and blowing up labor models everywhere else</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>While day drinking in New York City, Seth and Sabrina Carpenter make drinks based on Sabrina's songs and play drinking games that involve identifying famous men based on their childhood photos and challenging each other to turn random phrases into innuendos.</t>
+          <t>Coal prices are in steep decline across the world, and that should translate to collapsing profitability for coal miners.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-22T23:00:30Z</t>
+          <t>2025-12-29T13:26:55Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>438</v>
+        <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>428433</v>
+        <v>63274</v>
       </c>
       <c r="G7" t="n">
-        <v>537</v>
+        <v>586</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Late Night with Seth Meyers</t>
+          <t>Inside China Business</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=C-sitwuRdlM</t>
+          <t>https://www.youtube.com/watch?v=qo8QnxqF92Y</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -833,41 +833,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8tPPmbkX7fo</t>
+          <t>FAn7bWn1uUM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Trump FREAKS OUT over Epstein in Christmas night MELTDOWN</t>
+          <t>Will Trump Steal Greenland</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BREAKING #news - Trump complains about Epstein in Christmas night message</t>
+          <t>In this video I talk about what happened on the 4th of January! The craziest is Trump wanting Greenland and honestly not something I expected!</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-12-26T02:04:16Z</t>
+          <t>2026-01-06T06:25:35Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>499</v>
+        <v>666</v>
       </c>
       <c r="F8" t="n">
-        <v>800034</v>
+        <v>1452</v>
       </c>
       <c r="G8" t="n">
-        <v>3980</v>
+        <v>88</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>Omar Agamy</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8tPPmbkX7fo</t>
+          <t>https://www.youtube.com/watch?v=FAn7bWn1uUM</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -884,61 +884,6 @@
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>jFVolN0zlfw</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>You’re not dumb enough to fall for this, right?</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-- Interior Secretary Doug Burgum misleads audiences about wind energy reliability and national security while ignoring grid diversification, storage technology, and documented fossil fuel failures</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-12-28T00:45:04Z</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>459</v>
-      </c>
-      <c r="F9" t="n">
-        <v>68037</v>
-      </c>
-      <c r="G9" t="n">
-        <v>630</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>David Pakman Show</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=jFVolN0zlfw</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>简体中文</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/batch/new_videos.xlsx
+++ b/batch/new_videos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,41 +503,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xj8JGZVgYFQ</t>
+          <t>jraXu2E4xhE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marco Rubio ENDS CAREER by HUMILIATING Trump on LIVE TV</t>
+          <t>They are DESPERATE and they are PANICKING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marco Rubio once again accidentally humiliated Donald Trump on live TV.</t>
+          <t>-- Trump surrogates including Pam Bondi lash out on television and fire federal prosecutors as protests intensify after ICE kills Renee Good in Minneapolis
+Become a Member: https://www.davidpakman.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-04T23:07:00Z</t>
+          <t>2026-01-20T02:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>693</v>
+        <v>415</v>
       </c>
       <c r="F2" t="n">
-        <v>245636</v>
+        <v>151528</v>
       </c>
       <c r="G2" t="n">
-        <v>1773</v>
+        <v>1193</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pondering Politics</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Xj8JGZVgYFQ</t>
+          <t>https://www.youtube.com/watch?v=jraXu2E4xhE</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -558,41 +559,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1BU_O3mQkKI</t>
+          <t>cPYHff_UDlA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trump gets BRUTALLY EXPOSED amid Venezuela invasion | Another Day</t>
+          <t>Trump STUNS the globe with Greenland ESCALATION | Another Day</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trump gets unwelcome SURPRISE amid Venezuela invasion | Another Day </t>
+          <t>Trump’s NEW Greenland threat SHOCKS the world | Another Day
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español): https://www.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-06T05:00:02Z</t>
+          <t>2026-01-20T05:30:21Z</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="F3" t="n">
-        <v>45972</v>
+        <v>117394</v>
       </c>
       <c r="G3" t="n">
-        <v>454</v>
+        <v>1176</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Brian Tyler Cohen</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=1BU_O3mQkKI</t>
+          <t>https://www.youtube.com/watch?v=cPYHff_UDlA</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -613,41 +617,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DOmh6EPMeCY</t>
+          <t>Lmtr9010fkM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"What Would You Do?" — Bill O'Reilly Dissects Kamala Harris' Reaction to Venezuela</t>
+          <t>Trump is spiraling and can’t control himself</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Subscribe to never miss an episode of No Spin News with Bill O'Reilly: https://www.youtube.com/channel/UC4OvD2yIbofl9l4dIlqSNMw</t>
+          <t>-- Donald Trump falsely claims he can cut off federal funding to sanctuary states and suggests taking Greenland despite clear constitutional and international law barriers
+Become a Member: https://www</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-05T22:40:19Z</t>
+          <t>2026-01-19T23:30:16Z</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="F4" t="n">
-        <v>31521</v>
+        <v>156871</v>
       </c>
       <c r="G4" t="n">
-        <v>163</v>
+        <v>1531</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>The David Pakman Show</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DOmh6EPMeCY</t>
+          <t>https://www.youtube.com/watch?v=Lmtr9010fkM</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -668,41 +673,44 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5OJrS2xAoBQ</t>
+          <t>cmpx4Wgx4co</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bill O'Reilly &amp; Tim Graham on Internet Bias</t>
+          <t>VIRAL: ICE caught pulling SHOCKING move against senior</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Newsbusters.org and Media Research Center's Tim Graham joins Bill to discuss liberal bias on the internet.</t>
+          <t>BREAKING #news - ICE arrests half-naked man in single-digit temperatures
+For more from Brian Tyler Cohen:
+Straight-news titled YouTube: https://www.youtube.com/@briantylercohennews
+YouTube (español):</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-04T13:00:18Z</t>
+          <t>2026-01-20T03:20:33Z</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>600</v>
+        <v>485</v>
       </c>
       <c r="F5" t="n">
-        <v>18106</v>
+        <v>259861</v>
       </c>
       <c r="G5" t="n">
-        <v>74</v>
+        <v>2660</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bill O'Reilly</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5OJrS2xAoBQ</t>
+          <t>https://www.youtube.com/watch?v=cmpx4Wgx4co</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -723,41 +731,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UUrO5jWKlGU</t>
+          <t>xuyjWn8L4vA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trump is about to get REJECTED</t>
+          <t>Top UK And Danish Diplomats Respond Publicly To Trump's Greenland Demands And Tariff Threats</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-- Donald Trump bets the Maduro seizure will unlock Venezuela’s oil, but allies, businesses, and markets resist a plan with no clear political transition</t>
+          <t>UK Foreign Secretary Yvette Cooper and Danish Foreign Affairs Minister Lars Lokke Rasmussen speak to reporters.
+Stay Connected
+Forbes Breaking News on X: https://x.com/ForbesTVNews
+Forbes Breaking Ne</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-06T00:45:04Z</t>
+          <t>2026-01-20T05:30:36Z</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="F6" t="n">
-        <v>155550</v>
+        <v>27446</v>
       </c>
       <c r="G6" t="n">
-        <v>1166</v>
+        <v>237</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>David Pakman Show</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UUrO5jWKlGU</t>
+          <t>https://www.youtube.com/watch?v=xuyjWn8L4vA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -778,41 +789,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qo8QnxqF92Y</t>
+          <t>xp6d8M24eN8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AI is revolutionizing Chinese coal production, and blowing up labor models everywhere else</t>
+          <t>Tom McClintock Promotes The Preserving Integrity In Immigration Benefits—Then Jamie Raskin Responds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Coal prices are in steep decline across the world, and that should translate to collapsing profitability for coal miners.</t>
+          <t xml:space="preserve">At Tuesday's House Judiciary Committee hearing, Rep. Tom McClintock (R-CA) put forward an amendment to the Preserving Integrity in Immigration Benefits, then Rep. Jamie Raskin (D-MD) gave his take on </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12-29T13:26:55Z</t>
+          <t>2026-01-20T04:00:57Z</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="F7" t="n">
-        <v>63274</v>
+        <v>1591</v>
       </c>
       <c r="G7" t="n">
-        <v>586</v>
+        <v>10</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inside China Business</t>
+          <t>Forbes Breaking News</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=qo8QnxqF92Y</t>
+          <t>https://www.youtube.com/watch?v=xp6d8M24eN8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -833,41 +844,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FAn7bWn1uUM</t>
+          <t>IBh-JaEDS78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Will Trump Steal Greenland</t>
+          <t>Poll: Americans REJECTING Political Parties, ESPECIALLY Gen-Z! | RISING</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In this video I talk about what happened on the 4th of January! The craziest is Trump wanting Greenland and honestly not something I expected!</t>
+          <t>Robby Soave and Lindsey Granger in a recent Gallup survey found that 45% of U.S. adults identify as political independents. #Politics #Independents #Liberals 
+About Rising: 
+Rising is a weekday morni</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-06T06:25:35Z</t>
+          <t>2026-01-19T15:30:06Z</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>666</v>
+        <v>314</v>
       </c>
       <c r="F8" t="n">
-        <v>1452</v>
+        <v>9427</v>
       </c>
       <c r="G8" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Omar Agamy</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FAn7bWn1uUM</t>
+          <t>https://www.youtube.com/watch?v=IBh-JaEDS78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -884,6 +897,61 @@
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nIgJl0BkjXc</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Something really feels 'amiss' in Minnesota: Ex-NFL sideline reporter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Podcast host Michele Tafoya expresses disgust and anger over anti-ICE protesters disrupting church services and criticizes Minnesota Gov. Walz's 'tepid' response on 'The Story.' #fox #media #us #usa #</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-20T08:45:03Z</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>242</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24187</v>
+      </c>
+      <c r="G9" t="n">
+        <v>472</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fox News</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nIgJl0BkjXc</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>简体中文</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
